--- a/SQL/SQL評量_正規化題目.xlsx
+++ b/SQL/SQL評量_正規化題目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A981348-D01B-45BA-9424-298CA392EE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3ADA1C-D5B5-4E74-917C-1A8AC7EE9003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="149">
   <si>
     <r>
       <rPr>
@@ -1714,6 +1714,31 @@
   <si>
     <t>037-472735</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公寓類別CATEGROY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別CATE_NM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別代號CATE_NO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G002</t>
+  </si>
+  <si>
+    <t>G003</t>
+  </si>
+  <si>
+    <t>G004</t>
   </si>
 </sst>
 </file>
@@ -1818,9 +1843,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1832,6 +1854,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2735,10 +2760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B496FDC-F081-4B17-A9E4-28518747A868}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2758,596 +2783,641 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="8" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="8">
+        <v>100</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3142</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1072</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="8">
+        <v>32</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="8">
+        <v>106</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="8">
+        <v>26</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2038</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="8">
+        <v>128</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="8">
+        <v>353</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="8">
+        <v>501</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="8">
+        <v>194</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="8">
+        <v>78</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="D22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="9">
-        <v>100</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7" t="s">
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="9">
-        <v>3142</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1072</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="9">
-        <v>32</v>
-      </c>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="9">
-        <v>106</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="C37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="9">
-        <v>26</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="9">
-        <v>2038</v>
-      </c>
-      <c r="F11" s="9">
-        <v>2</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="9">
-        <v>128</v>
-      </c>
-      <c r="F12" s="9">
-        <v>2</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="9">
-        <v>353</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="C38" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="9">
-        <v>501</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="9">
-        <v>194</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="9">
-        <v>78</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="6" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G19:H19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SQL/SQL評量_正規化題目.xlsx
+++ b/SQL/SQL評量_正規化題目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3ADA1C-D5B5-4E74-917C-1A8AC7EE9003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30094970-2204-483D-881F-DB83C5101074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="15600" firstSheet="1" activeTab="1" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="題目" sheetId="1" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="160">
   <si>
     <r>
       <rPr>
@@ -1488,257 +1488,321 @@
     <t>竹南鎮公義路1035號</t>
   </si>
   <si>
+    <t>竹南里</t>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPARTMENT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>POLICE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>D005</t>
+  </si>
+  <si>
+    <t>D006</t>
+  </si>
+  <si>
+    <t>D007</t>
+  </si>
+  <si>
+    <t>D008</t>
+  </si>
+  <si>
+    <t>D009</t>
+  </si>
+  <si>
+    <t>D010</t>
+  </si>
+  <si>
+    <t>D011</t>
+  </si>
+  <si>
+    <t>D012</t>
+  </si>
+  <si>
+    <t>編號DE_NO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里別代號COU_NO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里辦公室COU_ADD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里辦公室電話COU_TEL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下樓層數DE_FLOOR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轄管分局代碼POL_NO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮中埔街20號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮和平街79號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮龍山路三段142號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗縣後龍鎮中華路1498號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗縣苗栗市米市街80號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗縣苗栗市光復路117號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗縣苗栗市博愛街109號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗縣苗栗市大同路53號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗縣頭份市民族里和平路102號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗縣頭份市忠孝忠孝一路69號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗縣頭份市信義里中正路65號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗縣頭份市信義里中正路116號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>容人數量DE_PEOPLE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>設施地址DE_ADD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里別COU_NM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轄管分局POL_NM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分局地址POL_ADD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分局電話POL_TEL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別DE_CATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別CATE_NM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別代號CATE_NO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G002</t>
+  </si>
+  <si>
+    <t>G003</t>
+  </si>
+  <si>
+    <t>G004</t>
+  </si>
+  <si>
+    <t>公寓類別CATEGORY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 747 2735</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 761 4186</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 772 4839</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 733 3240</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 766 0001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 766 1145</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 761 6072</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山佳里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>埔頂里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠苗里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠孝里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>信義里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹南鎮竹南里中山路 103 號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹南鎮山佳里國光街 14 號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>後龍鎮埔頂里中興路136-1號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗市綠苗里中正路 766 號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠孝里光大街82號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族里民族路96號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>信義里信義路53巷1號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(8)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(40)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(11)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(11)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>竹南分局</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>苗栗縣竹南鎮民族街72號</t>
-  </si>
-  <si>
-    <t>竹南里</t>
-  </si>
-  <si>
-    <t>竹南鎮竹南里中山路 103 號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 747 4796</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>苗栗分局</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭份分局</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>苗栗縣苗栗市金鳳街109號</t>
-  </si>
-  <si>
-    <t>山佳里</t>
-  </si>
-  <si>
-    <t>竹南鎮山佳里國光街 14 號</t>
-  </si>
-  <si>
-    <t>頭份分局</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>苗栗縣頭份市中興路503號</t>
-  </si>
-  <si>
-    <t>埔頂里</t>
-  </si>
-  <si>
-    <t>後龍鎮埔頂里中興路136-1號</t>
-  </si>
-  <si>
-    <t>綠苗里</t>
-  </si>
-  <si>
-    <t>苗栗市綠苗里中正路 766 號</t>
-  </si>
-  <si>
-    <t>民族里</t>
-  </si>
-  <si>
-    <t>民族里民族路96號</t>
-  </si>
-  <si>
-    <t>忠孝里</t>
-  </si>
-  <si>
-    <t>忠孝里光大街82號</t>
-  </si>
-  <si>
-    <t>信義里</t>
-  </si>
-  <si>
-    <t>信義里信義路53巷1號</t>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEPARTMENT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>POLICE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D002</t>
-  </si>
-  <si>
-    <t>D003</t>
-  </si>
-  <si>
-    <t>D004</t>
-  </si>
-  <si>
-    <t>D005</t>
-  </si>
-  <si>
-    <t>D006</t>
-  </si>
-  <si>
-    <t>D007</t>
-  </si>
-  <si>
-    <t>D008</t>
-  </si>
-  <si>
-    <t>D009</t>
-  </si>
-  <si>
-    <t>D010</t>
-  </si>
-  <si>
-    <t>D011</t>
-  </si>
-  <si>
-    <t>D012</t>
-  </si>
-  <si>
-    <t>CHAR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號DE_NO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>村里別代號COU_NO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>村里辦公室COU_ADD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>村里辦公室電話COU_TEL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下樓層數DE_FLOOR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>轄管分局代碼POL_NO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮中埔街20號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮和平街79號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮龍山路三段142號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣後龍鎮中華路1498號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣苗栗市米市街80號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣苗栗市光復路117號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣苗栗市博愛街109號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣苗栗市大同路53號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣頭份市民族里和平路102號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣頭份市忠孝忠孝一路69號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣頭份市信義里中正路65號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣頭份市信義里中正路116號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>容人數量DE_PEOPLE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>設施地址DE_ADD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>村里別COU_NM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>轄管分局POL_NM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分局地址POL_ADD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分局電話POL_TEL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>類別DE_CATE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>037-472735</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>公寓類別CATEGROY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>類別CATE_NM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>類別代號CATE_NO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G002</t>
-  </si>
-  <si>
-    <t>G003</t>
-  </si>
-  <si>
-    <t>G004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 732 0059</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 766 3004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1775,7 +1839,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1791,6 +1855,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1824,7 +1894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1856,6 +1926,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2762,19 +2835,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B496FDC-F081-4B17-A9E4-28518747A868}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="5" customWidth="1"/>
     <col min="4" max="4" width="31.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24" style="5" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="17.125" style="5" customWidth="1"/>
     <col min="9" max="9" width="26.75" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.25" style="5" customWidth="1"/>
@@ -2784,7 +2857,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2795,7 +2868,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2806,62 +2879,62 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="E5" s="8">
         <v>100</v>
@@ -2875,18 +2948,18 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="8">
+        <v>100</v>
+      </c>
+      <c r="E6" s="11">
         <v>3142</v>
       </c>
       <c r="F6" s="8">
@@ -2898,18 +2971,18 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="8">
+        <v>101</v>
+      </c>
+      <c r="E7" s="11">
         <v>1072</v>
       </c>
       <c r="F7" s="8">
@@ -2921,16 +2994,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E8" s="8">
         <v>32</v>
@@ -2944,16 +3017,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E9" s="8">
         <v>106</v>
@@ -2967,16 +3040,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E10" s="8">
         <v>26</v>
@@ -2990,18 +3063,18 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="8">
+        <v>105</v>
+      </c>
+      <c r="E11" s="11">
         <v>2038</v>
       </c>
       <c r="F11" s="8">
@@ -3013,16 +3086,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E12" s="8">
         <v>128</v>
@@ -3036,16 +3109,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E13" s="8">
         <v>353</v>
@@ -3059,16 +3132,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>58</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E14" s="8">
         <v>501</v>
@@ -3082,16 +3155,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E15" s="8">
         <v>194</v>
@@ -3105,16 +3178,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="E16" s="8">
         <v>78</v>
@@ -3126,6 +3199,7 @@
         <v>53</v>
       </c>
     </row>
+    <row r="17" spans="2:8" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>70</v>
@@ -3134,60 +3208,60 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="G20" s="6" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -3204,7 +3278,7 @@
         <v>15</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>71</v>
@@ -3215,16 +3289,16 @@
         <v>22</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>72</v>
@@ -3235,16 +3309,16 @@
         <v>27</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>73</v>
@@ -3255,16 +3329,16 @@
         <v>33</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>74</v>
@@ -3275,13 +3349,13 @@
         <v>38</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -3289,13 +3363,13 @@
         <v>48</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -3303,13 +3377,13 @@
         <v>58</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -3317,18 +3391,19 @@
         <v>63</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -3336,7 +3411,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -3344,30 +3419,30 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -3375,13 +3450,13 @@
         <v>17</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -3389,13 +3464,13 @@
         <v>43</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
@@ -3403,13 +3478,13 @@
         <v>53</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3421,5 +3496,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SQL/SQL評量_正規化題目.xlsx
+++ b/SQL/SQL評量_正規化題目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30094970-2204-483D-881F-DB83C5101074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C71A25-8C08-4E53-A42F-1C140BA4713F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="15600" firstSheet="1" activeTab="1" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="5925" yWindow="1335" windowWidth="21600" windowHeight="12780" firstSheet="1" activeTab="1" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="題目" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1839,7 +1839,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1855,12 +1855,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1928,7 +1922,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2836,18 +2830,17 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="31.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="12.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="23" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.125" style="5" customWidth="1"/>
     <col min="9" max="9" width="26.75" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.25" style="5" customWidth="1"/>
@@ -3005,7 +2998,7 @@
       <c r="D8" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="11">
         <v>32</v>
       </c>
       <c r="F8" s="8">
@@ -3028,7 +3021,7 @@
       <c r="D9" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="11">
         <v>106</v>
       </c>
       <c r="F9" s="8">
@@ -3051,7 +3044,7 @@
       <c r="D10" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="11">
         <v>26</v>
       </c>
       <c r="F10" s="8">
@@ -3097,7 +3090,7 @@
       <c r="D12" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="11">
         <v>128</v>
       </c>
       <c r="F12" s="8">
